--- a/Code/Results/Cases/Case_1_247/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_247/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9743595907866902</v>
+        <v>1.018777190134748</v>
       </c>
       <c r="D2">
-        <v>1.029642249779684</v>
+        <v>1.026513451475777</v>
       </c>
       <c r="E2">
-        <v>0.9898440152954999</v>
+        <v>1.028441947054263</v>
       </c>
       <c r="F2">
-        <v>0.9911060441713527</v>
+        <v>1.035878506188936</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046847012775419</v>
+        <v>1.028140619206577</v>
       </c>
       <c r="J2">
-        <v>0.9973352152584197</v>
+        <v>1.023983701230587</v>
       </c>
       <c r="K2">
-        <v>1.040703507696006</v>
+        <v>1.029335878222202</v>
       </c>
       <c r="L2">
-        <v>1.001446676189731</v>
+        <v>1.031258752783233</v>
       </c>
       <c r="M2">
-        <v>1.002690692514697</v>
+        <v>1.038673849366234</v>
       </c>
       <c r="N2">
-        <v>1.00274753510942</v>
+        <v>1.012006349856506</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9793661542975831</v>
+        <v>1.019837964448458</v>
       </c>
       <c r="D3">
-        <v>1.03121079133331</v>
+        <v>1.026832767717716</v>
       </c>
       <c r="E3">
-        <v>0.994188494968927</v>
+        <v>1.029421715039732</v>
       </c>
       <c r="F3">
-        <v>0.9961506079998249</v>
+        <v>1.037028821821524</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047082302303658</v>
+        <v>1.028119731977348</v>
       </c>
       <c r="J3">
-        <v>1.0004355728117</v>
+        <v>1.024680361429499</v>
       </c>
       <c r="K3">
-        <v>1.041459311046039</v>
+        <v>1.029464047931005</v>
       </c>
       <c r="L3">
-        <v>1.004896279141784</v>
+        <v>1.032045993535909</v>
       </c>
       <c r="M3">
-        <v>1.00683298062011</v>
+        <v>1.039632745861786</v>
       </c>
       <c r="N3">
-        <v>1.00383556450638</v>
+        <v>1.012244501852445</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9825363007591226</v>
+        <v>1.020524907074266</v>
       </c>
       <c r="D4">
-        <v>1.032206919829202</v>
+        <v>1.027038990663314</v>
       </c>
       <c r="E4">
-        <v>0.9969459578851004</v>
+        <v>1.030056559725998</v>
       </c>
       <c r="F4">
-        <v>0.9993527971992211</v>
+        <v>1.037774361322411</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047219142987687</v>
+        <v>1.02810454699596</v>
       </c>
       <c r="J4">
-        <v>1.00239753081861</v>
+        <v>1.025131167901118</v>
       </c>
       <c r="K4">
-        <v>1.041931574488913</v>
+        <v>1.029545830079758</v>
       </c>
       <c r="L4">
-        <v>1.00708138279815</v>
+        <v>1.032555648281803</v>
       </c>
       <c r="M4">
-        <v>1.009459039669815</v>
+        <v>1.040253847108459</v>
       </c>
       <c r="N4">
-        <v>1.00452314133447</v>
+        <v>1.01239841392067</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9838530956974485</v>
+        <v>1.020813829861862</v>
       </c>
       <c r="D5">
-        <v>1.032621214092848</v>
+        <v>1.027125589626558</v>
       </c>
       <c r="E5">
-        <v>0.9980928544908595</v>
+        <v>1.030323656259277</v>
       </c>
       <c r="F5">
-        <v>1.000684781876105</v>
+        <v>1.038088075393573</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047272985406224</v>
+        <v>1.028097762610936</v>
       </c>
       <c r="J5">
-        <v>1.003212156211596</v>
+        <v>1.025320691769214</v>
       </c>
       <c r="K5">
-        <v>1.042126105599354</v>
+        <v>1.029579933844576</v>
       </c>
       <c r="L5">
-        <v>1.007989172128858</v>
+        <v>1.032769968569184</v>
       </c>
       <c r="M5">
-        <v>1.010550556293177</v>
+        <v>1.040515109076832</v>
       </c>
       <c r="N5">
-        <v>1.004808391457735</v>
+        <v>1.012463073293099</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9840732762346731</v>
+        <v>1.020862349024004</v>
       </c>
       <c r="D6">
-        <v>1.03269051411446</v>
+        <v>1.027140124207022</v>
       </c>
       <c r="E6">
-        <v>0.998284714303134</v>
+        <v>1.030368515121524</v>
       </c>
       <c r="F6">
-        <v>1.000907611822435</v>
+        <v>1.038140766328743</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047281809749891</v>
+        <v>1.028096599963333</v>
       </c>
       <c r="J6">
-        <v>1.003348349418616</v>
+        <v>1.025352513939803</v>
       </c>
       <c r="K6">
-        <v>1.042158533491345</v>
+        <v>1.029585643700015</v>
       </c>
       <c r="L6">
-        <v>1.00814097099787</v>
+        <v>1.032805957485931</v>
       </c>
       <c r="M6">
-        <v>1.010733109455026</v>
+        <v>1.040558984963684</v>
       </c>
       <c r="N6">
-        <v>1.004856066632492</v>
+        <v>1.012473927226143</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9825539575673204</v>
+        <v>1.02052876715525</v>
       </c>
       <c r="D7">
-        <v>1.032212473207964</v>
+        <v>1.027040148187686</v>
       </c>
       <c r="E7">
-        <v>0.9969613306012125</v>
+        <v>1.030060127866673</v>
       </c>
       <c r="F7">
-        <v>0.9993706503021355</v>
+        <v>1.037778552048582</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047219876909364</v>
+        <v>1.028104457918005</v>
       </c>
       <c r="J7">
-        <v>1.002408455383046</v>
+        <v>1.025133700309516</v>
       </c>
       <c r="K7">
-        <v>1.04193418955789</v>
+        <v>1.029546286868166</v>
       </c>
       <c r="L7">
-        <v>1.007093554721079</v>
+        <v>1.032558511798797</v>
       </c>
       <c r="M7">
-        <v>1.009473672938592</v>
+        <v>1.040257337510414</v>
       </c>
       <c r="N7">
-        <v>1.004526967651677</v>
+        <v>1.012399278080471</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9760663863377973</v>
+        <v>1.019135569909541</v>
       </c>
       <c r="D8">
-        <v>1.030176260413161</v>
+        <v>1.026621446480098</v>
       </c>
       <c r="E8">
-        <v>0.991323692814622</v>
+        <v>1.028772884070614</v>
       </c>
       <c r="F8">
-        <v>0.9928240976986868</v>
+        <v>1.036267010527895</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04692972229462</v>
+        <v>1.02813390540539</v>
       </c>
       <c r="J8">
-        <v>0.9983923885773003</v>
+        <v>1.024219136428681</v>
       </c>
       <c r="K8">
-        <v>1.040962419099498</v>
+        <v>1.029379431388346</v>
       </c>
       <c r="L8">
-        <v>1.002622487125935</v>
+        <v>1.031524751091472</v>
       </c>
       <c r="M8">
-        <v>1.004102156594195</v>
+        <v>1.038997782203664</v>
       </c>
       <c r="N8">
-        <v>1.00311872740752</v>
+        <v>1.012086873282085</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9640696075998622</v>
+        <v>1.01668478420329</v>
       </c>
       <c r="D9">
-        <v>1.026442710141579</v>
+        <v>1.025880711243438</v>
       </c>
       <c r="E9">
-        <v>0.9809533909983575</v>
+        <v>1.026511265982619</v>
       </c>
       <c r="F9">
-        <v>0.9807836907214601</v>
+        <v>1.033612736623003</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046300249603783</v>
+        <v>1.028173049635261</v>
       </c>
       <c r="J9">
-        <v>0.9909582354544856</v>
+        <v>1.022607722786081</v>
       </c>
       <c r="K9">
-        <v>1.039120861272451</v>
+        <v>1.029076656696341</v>
       </c>
       <c r="L9">
-        <v>0.9943632346639233</v>
+        <v>1.029705111133826</v>
       </c>
       <c r="M9">
-        <v>0.9941964281114851</v>
+        <v>1.036783121677486</v>
       </c>
       <c r="N9">
-        <v>1.000504934991748</v>
+        <v>1.011534943782861</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9556421588299638</v>
+        <v>1.015053735864303</v>
       </c>
       <c r="D10">
-        <v>1.023853917626846</v>
+        <v>1.025385058414673</v>
       </c>
       <c r="E10">
-        <v>0.9737095121309614</v>
+        <v>1.025008019577426</v>
       </c>
       <c r="F10">
-        <v>0.972372664495464</v>
+        <v>1.03184944187669</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045800826930256</v>
+        <v>1.028190631074268</v>
       </c>
       <c r="J10">
-        <v>0.9857333582567549</v>
+        <v>1.021533564086832</v>
       </c>
       <c r="K10">
-        <v>1.037805436977404</v>
+        <v>1.02886901662911</v>
       </c>
       <c r="L10">
-        <v>0.9885702474634047</v>
+        <v>1.028493356457054</v>
       </c>
       <c r="M10">
-        <v>0.9872593221669134</v>
+        <v>1.035309935747672</v>
       </c>
       <c r="N10">
-        <v>0.9986639784707585</v>
+        <v>1.011166039416976</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9518787993904306</v>
+        <v>1.014348135187405</v>
       </c>
       <c r="D11">
-        <v>1.022708820873849</v>
+        <v>1.025170031100778</v>
       </c>
       <c r="E11">
-        <v>0.9704853572765646</v>
+        <v>1.024358166769749</v>
       </c>
       <c r="F11">
-        <v>0.9686284721189347</v>
+        <v>1.03108739017691</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045565562565124</v>
+        <v>1.028196236062541</v>
       </c>
       <c r="J11">
-        <v>0.9834001605406966</v>
+        <v>1.021068470029094</v>
       </c>
       <c r="K11">
-        <v>1.037214823105151</v>
+        <v>1.028777753015332</v>
       </c>
       <c r="L11">
-        <v>0.985986199395515</v>
+        <v>1.027968971972987</v>
       </c>
       <c r="M11">
-        <v>0.9841672931488047</v>
+        <v>1.034672801649342</v>
       </c>
       <c r="N11">
-        <v>0.9978411441609032</v>
+        <v>1.011006076378505</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9504626109381099</v>
+        <v>1.014086141422113</v>
       </c>
       <c r="D12">
-        <v>1.022279813821028</v>
+        <v>1.02509010175386</v>
       </c>
       <c r="E12">
-        <v>0.9692737655986772</v>
+        <v>1.024116942290496</v>
       </c>
       <c r="F12">
-        <v>0.9672213353933716</v>
+        <v>1.0308045503853</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045475309823012</v>
+        <v>1.028198017265132</v>
       </c>
       <c r="J12">
-        <v>0.9825222162717608</v>
+        <v>1.020895716942084</v>
       </c>
       <c r="K12">
-        <v>1.036992263729265</v>
+        <v>1.028743651841878</v>
       </c>
       <c r="L12">
-        <v>0.9850142958355096</v>
+        <v>1.027774239312679</v>
       </c>
       <c r="M12">
-        <v>0.983004670443239</v>
+        <v>1.03443625652106</v>
       </c>
       <c r="N12">
-        <v>0.9975314295822874</v>
+        <v>1.010946625336262</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9507672362182328</v>
+        <v>1.01414233555925</v>
       </c>
       <c r="D13">
-        <v>1.022372003920665</v>
+        <v>1.025107249484421</v>
       </c>
       <c r="E13">
-        <v>0.9695343039295106</v>
+        <v>1.024168678527527</v>
       </c>
       <c r="F13">
-        <v>0.9675239295292782</v>
+        <v>1.030865210521971</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04549479914511</v>
+        <v>1.028197648785465</v>
       </c>
       <c r="J13">
-        <v>0.9827110603433582</v>
+        <v>1.020932772905002</v>
       </c>
       <c r="K13">
-        <v>1.037040147666444</v>
+        <v>1.028750975765278</v>
       </c>
       <c r="L13">
-        <v>0.985223330787437</v>
+        <v>1.027816007998315</v>
       </c>
       <c r="M13">
-        <v>0.9832547097108419</v>
+        <v>1.034486991058778</v>
       </c>
       <c r="N13">
-        <v>0.9975980526140426</v>
+        <v>1.010959379306702</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9517621173027255</v>
+        <v>1.014326476710061</v>
       </c>
       <c r="D14">
-        <v>1.022673434071068</v>
+        <v>1.025163425298077</v>
       </c>
       <c r="E14">
-        <v>0.9703854974253903</v>
+        <v>1.024338223818738</v>
       </c>
       <c r="F14">
-        <v>0.968512498088571</v>
+        <v>1.03106400606181</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045558160746259</v>
+        <v>1.028196389426981</v>
       </c>
       <c r="J14">
-        <v>0.9833278237018386</v>
+        <v>1.021054190132586</v>
       </c>
       <c r="K14">
-        <v>1.037196491250169</v>
+        <v>1.028774938309027</v>
       </c>
       <c r="L14">
-        <v>0.9859061121308432</v>
+        <v>1.027952874349895</v>
       </c>
       <c r="M14">
-        <v>0.9840714833146205</v>
+        <v>1.034653246413062</v>
       </c>
       <c r="N14">
-        <v>0.9978156275566423</v>
+        <v>1.011001162822286</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9523726342127897</v>
+        <v>1.014439945087112</v>
       </c>
       <c r="D15">
-        <v>1.022858667935781</v>
+        <v>1.025198029374264</v>
       </c>
       <c r="E15">
-        <v>0.9709080644984818</v>
+        <v>1.024442707445325</v>
       </c>
       <c r="F15">
-        <v>0.969119385514272</v>
+        <v>1.03118651971999</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045596819989618</v>
+        <v>1.028195573671256</v>
       </c>
       <c r="J15">
-        <v>0.9837063153167618</v>
+        <v>1.021128999764434</v>
       </c>
       <c r="K15">
-        <v>1.037292397812562</v>
+        <v>1.028789675730796</v>
       </c>
       <c r="L15">
-        <v>0.9863251742940357</v>
+        <v>1.028037208466125</v>
       </c>
       <c r="M15">
-        <v>0.9845728287138802</v>
+        <v>1.034755697038808</v>
       </c>
       <c r="N15">
-        <v>0.9979491355568324</v>
+        <v>1.011026902571408</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9558894182395881</v>
+        <v>1.015100577992576</v>
       </c>
       <c r="D16">
-        <v>1.023929401978527</v>
+        <v>1.025399320714895</v>
       </c>
       <c r="E16">
-        <v>0.9739215739855726</v>
+        <v>1.025051170569725</v>
       </c>
       <c r="F16">
-        <v>0.9726189158969141</v>
+        <v>1.031900047620276</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045816039370124</v>
+        <v>1.028190216864643</v>
       </c>
       <c r="J16">
-        <v>0.9858866587054804</v>
+        <v>1.02156443134678</v>
       </c>
       <c r="K16">
-        <v>1.037844189381429</v>
+        <v>1.028875045105079</v>
       </c>
       <c r="L16">
-        <v>0.9887400893083153</v>
+        <v>1.028528164730228</v>
       </c>
       <c r="M16">
-        <v>0.9874626001819413</v>
+        <v>1.035352236350497</v>
       </c>
       <c r="N16">
-        <v>0.998718027858374</v>
+        <v>1.011176650909739</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9580640428707926</v>
+        <v>1.01551515029314</v>
       </c>
       <c r="D17">
-        <v>1.02459455542163</v>
+        <v>1.025525478374927</v>
       </c>
       <c r="E17">
-        <v>0.9757878617253722</v>
+        <v>1.025433128034535</v>
       </c>
       <c r="F17">
-        <v>0.9747860270340138</v>
+        <v>1.032348017322074</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045948454076321</v>
+        <v>1.028186319765531</v>
       </c>
       <c r="J17">
-        <v>0.987234931711326</v>
+        <v>1.021837572421634</v>
       </c>
       <c r="K17">
-        <v>1.038184670434247</v>
+        <v>1.028928233685423</v>
       </c>
       <c r="L17">
-        <v>0.9902341669457458</v>
+        <v>1.02883621251074</v>
       </c>
       <c r="M17">
-        <v>0.9892510794208087</v>
+        <v>1.03572663446968</v>
       </c>
       <c r="N17">
-        <v>0.9991933079337061</v>
+        <v>1.01127052395519</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9593215267470986</v>
+        <v>1.015757026439381</v>
       </c>
       <c r="D18">
-        <v>1.024980202627936</v>
+        <v>1.025599024633332</v>
       </c>
       <c r="E18">
-        <v>0.9768680535067509</v>
+        <v>1.025656019899017</v>
       </c>
       <c r="F18">
-        <v>0.9760402828334526</v>
+        <v>1.032609451984648</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046023855691627</v>
+        <v>1.02818385285959</v>
       </c>
       <c r="J18">
-        <v>0.9880145732032002</v>
+        <v>1.021996893281358</v>
       </c>
       <c r="K18">
-        <v>1.038381239943934</v>
+        <v>1.02895912692504</v>
       </c>
       <c r="L18">
-        <v>0.9910983891502213</v>
+        <v>1.029015921795615</v>
       </c>
       <c r="M18">
-        <v>0.9902858185982454</v>
+        <v>1.035945088389231</v>
       </c>
       <c r="N18">
-        <v>0.9994680678799617</v>
+        <v>1.011325256793188</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9597484743400612</v>
+        <v>1.0158395106796</v>
       </c>
       <c r="D19">
-        <v>1.025111305138301</v>
+        <v>1.025624095254975</v>
       </c>
       <c r="E19">
-        <v>0.9772349739132786</v>
+        <v>1.025732037653504</v>
       </c>
       <c r="F19">
-        <v>0.9764663220733211</v>
+        <v>1.03269861845784</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046049254932278</v>
+        <v>1.028182978809425</v>
       </c>
       <c r="J19">
-        <v>0.9882792792588656</v>
+        <v>1.02205121796653</v>
       </c>
       <c r="K19">
-        <v>1.038447921787901</v>
+        <v>1.028969638492465</v>
       </c>
       <c r="L19">
-        <v>0.991391857771565</v>
+        <v>1.029077203144091</v>
       </c>
       <c r="M19">
-        <v>0.9906372293161608</v>
+        <v>1.036019588056826</v>
       </c>
       <c r="N19">
-        <v>0.9995613425036081</v>
+        <v>1.011343915587419</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9578318655825417</v>
+        <v>1.015470664081779</v>
       </c>
       <c r="D20">
-        <v>1.024523431589315</v>
+        <v>1.025511946906694</v>
       </c>
       <c r="E20">
-        <v>0.9755884996566923</v>
+        <v>1.025392137006533</v>
       </c>
       <c r="F20">
-        <v>0.9745545356316716</v>
+        <v>1.032299939776394</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045934436955818</v>
+        <v>1.028186757925733</v>
       </c>
       <c r="J20">
-        <v>0.9870909809742945</v>
+        <v>1.021808266732241</v>
       </c>
       <c r="K20">
-        <v>1.038148349877796</v>
+        <v>1.028922540567381</v>
       </c>
       <c r="L20">
-        <v>0.9900746211836833</v>
+        <v>1.028803158772577</v>
       </c>
       <c r="M20">
-        <v>0.9890600725358822</v>
+        <v>1.035686457458765</v>
       </c>
       <c r="N20">
-        <v>0.9991425711452132</v>
+        <v>1.011260454511378</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9514696647611027</v>
+        <v>1.014272249036662</v>
       </c>
       <c r="D21">
-        <v>1.022584771977218</v>
+        <v>1.025146884520153</v>
       </c>
       <c r="E21">
-        <v>0.9701352357164722</v>
+        <v>1.024288292544409</v>
       </c>
       <c r="F21">
-        <v>0.9682218500544627</v>
+        <v>1.031005459654759</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045539581499646</v>
+        <v>1.028196768571165</v>
       </c>
       <c r="J21">
-        <v>0.9831465194791913</v>
+        <v>1.021018435687276</v>
       </c>
       <c r="K21">
-        <v>1.037150539886922</v>
+        <v>1.028767887494854</v>
       </c>
       <c r="L21">
-        <v>0.9857053892970389</v>
+        <v>1.027912569320712</v>
       </c>
       <c r="M21">
-        <v>0.9838313604194074</v>
+        <v>1.034604285185606</v>
       </c>
       <c r="N21">
-        <v>0.9977516715528471</v>
+        <v>1.010988859545931</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9473629231050948</v>
+        <v>1.013519323194119</v>
       </c>
       <c r="D22">
-        <v>1.02134462109487</v>
+        <v>1.024917017289605</v>
       </c>
       <c r="E22">
-        <v>0.9666250970001371</v>
+        <v>1.023595186264539</v>
       </c>
       <c r="F22">
-        <v>0.964144914527403</v>
+        <v>1.030192842195708</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045274738750163</v>
+        <v>1.028201323127522</v>
       </c>
       <c r="J22">
-        <v>0.9806007900421483</v>
+        <v>1.020521858121802</v>
       </c>
       <c r="K22">
-        <v>1.036504773176328</v>
+        <v>1.028669484195791</v>
       </c>
       <c r="L22">
-        <v>0.9828880345606189</v>
+        <v>1.027352892817892</v>
       </c>
       <c r="M22">
-        <v>0.9804617773210484</v>
+        <v>1.033924544930364</v>
       </c>
       <c r="N22">
-        <v>0.9968534464274099</v>
+        <v>1.010817902416904</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.949550496247512</v>
+        <v>1.013918410019024</v>
       </c>
       <c r="D23">
-        <v>1.022004076002786</v>
+        <v>1.025038905493229</v>
       </c>
       <c r="E23">
-        <v>0.9684939112977039</v>
+        <v>1.023962527342228</v>
       </c>
       <c r="F23">
-        <v>0.9663155768381586</v>
+        <v>1.030623505429295</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045416711806118</v>
+        <v>1.028199073251911</v>
       </c>
       <c r="J23">
-        <v>0.9819567892971549</v>
+        <v>1.020785101339317</v>
       </c>
       <c r="K23">
-        <v>1.036848857809568</v>
+        <v>1.028721759700743</v>
       </c>
       <c r="L23">
-        <v>0.9843884780290935</v>
+        <v>1.027649562091004</v>
       </c>
       <c r="M23">
-        <v>0.9822561409227116</v>
+        <v>1.034284825157511</v>
       </c>
       <c r="N23">
-        <v>0.9973319377238893</v>
+        <v>1.010908548417934</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9579368102219225</v>
+        <v>1.015490765290502</v>
       </c>
       <c r="D24">
-        <v>1.024555576572009</v>
+        <v>1.025518061316702</v>
       </c>
       <c r="E24">
-        <v>0.9756786086356397</v>
+        <v>1.025410658770727</v>
       </c>
       <c r="F24">
-        <v>0.9746591667904234</v>
+        <v>1.03232166351239</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045940776355194</v>
+        <v>1.028186560538906</v>
       </c>
       <c r="J24">
-        <v>0.9871560470305537</v>
+        <v>1.021821508704644</v>
       </c>
       <c r="K24">
-        <v>1.038164767837821</v>
+        <v>1.028925113446604</v>
       </c>
       <c r="L24">
-        <v>0.9901467353925864</v>
+        <v>1.028818094240572</v>
       </c>
       <c r="M24">
-        <v>0.9891464063775088</v>
+        <v>1.035704611492333</v>
       </c>
       <c r="N24">
-        <v>0.9991655045110732</v>
+        <v>1.011265004526705</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9672428978102352</v>
+        <v>1.017317874621407</v>
       </c>
       <c r="D25">
-        <v>1.027425357429848</v>
+        <v>1.026072541693807</v>
       </c>
       <c r="E25">
-        <v>0.9836896978703382</v>
+        <v>1.027095156568681</v>
       </c>
       <c r="F25">
-        <v>0.9839606316739603</v>
+        <v>1.034297833428938</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046477018129713</v>
+        <v>1.028164434695646</v>
       </c>
       <c r="J25">
-        <v>0.9929252945146541</v>
+        <v>1.023024291679433</v>
       </c>
       <c r="K25">
-        <v>1.039612341487524</v>
+        <v>1.029155958733625</v>
       </c>
       <c r="L25">
-        <v>0.9965465995878641</v>
+        <v>1.030175296368112</v>
       </c>
       <c r="M25">
-        <v>0.9968131480853908</v>
+        <v>1.037355091090547</v>
       </c>
       <c r="N25">
-        <v>1.001197273180616</v>
+        <v>1.011677799327959</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_247/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_247/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018777190134748</v>
+        <v>0.9743595907866899</v>
       </c>
       <c r="D2">
-        <v>1.026513451475777</v>
+        <v>1.029642249779684</v>
       </c>
       <c r="E2">
-        <v>1.028441947054263</v>
+        <v>0.9898440152954996</v>
       </c>
       <c r="F2">
-        <v>1.035878506188936</v>
+        <v>0.9911060441713523</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028140619206577</v>
+        <v>1.046847012775419</v>
       </c>
       <c r="J2">
-        <v>1.023983701230587</v>
+        <v>0.9973352152584193</v>
       </c>
       <c r="K2">
-        <v>1.029335878222202</v>
+        <v>1.040703507696006</v>
       </c>
       <c r="L2">
-        <v>1.031258752783233</v>
+        <v>1.001446676189731</v>
       </c>
       <c r="M2">
-        <v>1.038673849366234</v>
+        <v>1.002690692514697</v>
       </c>
       <c r="N2">
-        <v>1.012006349856506</v>
+        <v>1.00274753510942</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019837964448458</v>
+        <v>0.9793661542975831</v>
       </c>
       <c r="D3">
-        <v>1.026832767717716</v>
+        <v>1.03121079133331</v>
       </c>
       <c r="E3">
-        <v>1.029421715039732</v>
+        <v>0.9941884949689271</v>
       </c>
       <c r="F3">
-        <v>1.037028821821524</v>
+        <v>0.9961506079998247</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028119731977348</v>
+        <v>1.047082302303657</v>
       </c>
       <c r="J3">
-        <v>1.024680361429499</v>
+        <v>1.0004355728117</v>
       </c>
       <c r="K3">
-        <v>1.029464047931005</v>
+        <v>1.041459311046039</v>
       </c>
       <c r="L3">
-        <v>1.032045993535909</v>
+        <v>1.004896279141784</v>
       </c>
       <c r="M3">
-        <v>1.039632745861786</v>
+        <v>1.00683298062011</v>
       </c>
       <c r="N3">
-        <v>1.012244501852445</v>
+        <v>1.00383556450638</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020524907074266</v>
+        <v>0.982536300759122</v>
       </c>
       <c r="D4">
-        <v>1.027038990663314</v>
+        <v>1.032206919829202</v>
       </c>
       <c r="E4">
-        <v>1.030056559725998</v>
+        <v>0.9969459578850997</v>
       </c>
       <c r="F4">
-        <v>1.037774361322411</v>
+        <v>0.9993527971992203</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02810454699596</v>
+        <v>1.047219142987687</v>
       </c>
       <c r="J4">
-        <v>1.025131167901118</v>
+        <v>1.002397530818609</v>
       </c>
       <c r="K4">
-        <v>1.029545830079758</v>
+        <v>1.041931574488913</v>
       </c>
       <c r="L4">
-        <v>1.032555648281803</v>
+        <v>1.007081382798149</v>
       </c>
       <c r="M4">
-        <v>1.040253847108459</v>
+        <v>1.009459039669814</v>
       </c>
       <c r="N4">
-        <v>1.01239841392067</v>
+        <v>1.00452314133447</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020813829861862</v>
+        <v>0.9838530956974484</v>
       </c>
       <c r="D5">
-        <v>1.027125589626558</v>
+        <v>1.032621214092848</v>
       </c>
       <c r="E5">
-        <v>1.030323656259277</v>
+        <v>0.9980928544908595</v>
       </c>
       <c r="F5">
-        <v>1.038088075393573</v>
+        <v>1.000684781876105</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028097762610936</v>
+        <v>1.047272985406224</v>
       </c>
       <c r="J5">
-        <v>1.025320691769214</v>
+        <v>1.003212156211595</v>
       </c>
       <c r="K5">
-        <v>1.029579933844576</v>
+        <v>1.042126105599354</v>
       </c>
       <c r="L5">
-        <v>1.032769968569184</v>
+        <v>1.007989172128858</v>
       </c>
       <c r="M5">
-        <v>1.040515109076832</v>
+        <v>1.010550556293178</v>
       </c>
       <c r="N5">
-        <v>1.012463073293099</v>
+        <v>1.004808391457735</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020862349024004</v>
+        <v>0.9840732762346733</v>
       </c>
       <c r="D6">
-        <v>1.027140124207022</v>
+        <v>1.03269051411446</v>
       </c>
       <c r="E6">
-        <v>1.030368515121524</v>
+        <v>0.9982847143031343</v>
       </c>
       <c r="F6">
-        <v>1.038140766328743</v>
+        <v>1.000907611822435</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028096599963333</v>
+        <v>1.047281809749891</v>
       </c>
       <c r="J6">
-        <v>1.025352513939803</v>
+        <v>1.003348349418616</v>
       </c>
       <c r="K6">
-        <v>1.029585643700015</v>
+        <v>1.042158533491345</v>
       </c>
       <c r="L6">
-        <v>1.032805957485931</v>
+        <v>1.008140970997871</v>
       </c>
       <c r="M6">
-        <v>1.040558984963684</v>
+        <v>1.010733109455026</v>
       </c>
       <c r="N6">
-        <v>1.012473927226143</v>
+        <v>1.004856066632492</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02052876715525</v>
+        <v>0.9825539575673207</v>
       </c>
       <c r="D7">
-        <v>1.027040148187686</v>
+        <v>1.032212473207964</v>
       </c>
       <c r="E7">
-        <v>1.030060127866673</v>
+        <v>0.9969613306012124</v>
       </c>
       <c r="F7">
-        <v>1.037778552048582</v>
+        <v>0.9993706503021356</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028104457918005</v>
+        <v>1.047219876909365</v>
       </c>
       <c r="J7">
-        <v>1.025133700309516</v>
+        <v>1.002408455383046</v>
       </c>
       <c r="K7">
-        <v>1.029546286868166</v>
+        <v>1.04193418955789</v>
       </c>
       <c r="L7">
-        <v>1.032558511798797</v>
+        <v>1.007093554721078</v>
       </c>
       <c r="M7">
-        <v>1.040257337510414</v>
+        <v>1.009473672938592</v>
       </c>
       <c r="N7">
-        <v>1.012399278080471</v>
+        <v>1.004526967651677</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019135569909541</v>
+        <v>0.9760663863377973</v>
       </c>
       <c r="D8">
-        <v>1.026621446480098</v>
+        <v>1.030176260413161</v>
       </c>
       <c r="E8">
-        <v>1.028772884070614</v>
+        <v>0.9913236928146218</v>
       </c>
       <c r="F8">
-        <v>1.036267010527895</v>
+        <v>0.9928240976986868</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02813390540539</v>
+        <v>1.04692972229462</v>
       </c>
       <c r="J8">
-        <v>1.024219136428681</v>
+        <v>0.9983923885773003</v>
       </c>
       <c r="K8">
-        <v>1.029379431388346</v>
+        <v>1.040962419099498</v>
       </c>
       <c r="L8">
-        <v>1.031524751091472</v>
+        <v>1.002622487125935</v>
       </c>
       <c r="M8">
-        <v>1.038997782203664</v>
+        <v>1.004102156594195</v>
       </c>
       <c r="N8">
-        <v>1.012086873282085</v>
+        <v>1.00311872740752</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01668478420329</v>
+        <v>0.9640696075998628</v>
       </c>
       <c r="D9">
-        <v>1.025880711243438</v>
+        <v>1.026442710141579</v>
       </c>
       <c r="E9">
-        <v>1.026511265982619</v>
+        <v>0.9809533909983583</v>
       </c>
       <c r="F9">
-        <v>1.033612736623003</v>
+        <v>0.9807836907214608</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028173049635261</v>
+        <v>1.046300249603783</v>
       </c>
       <c r="J9">
-        <v>1.022607722786081</v>
+        <v>0.9909582354544862</v>
       </c>
       <c r="K9">
-        <v>1.029076656696341</v>
+        <v>1.039120861272451</v>
       </c>
       <c r="L9">
-        <v>1.029705111133826</v>
+        <v>0.9943632346639238</v>
       </c>
       <c r="M9">
-        <v>1.036783121677486</v>
+        <v>0.9941964281114858</v>
       </c>
       <c r="N9">
-        <v>1.011534943782861</v>
+        <v>1.000504934991748</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015053735864303</v>
+        <v>0.9556421588299636</v>
       </c>
       <c r="D10">
-        <v>1.025385058414673</v>
+        <v>1.023853917626846</v>
       </c>
       <c r="E10">
-        <v>1.025008019577426</v>
+        <v>0.973709512130961</v>
       </c>
       <c r="F10">
-        <v>1.03184944187669</v>
+        <v>0.9723726644954634</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028190631074268</v>
+        <v>1.045800826930256</v>
       </c>
       <c r="J10">
-        <v>1.021533564086832</v>
+        <v>0.9857333582567546</v>
       </c>
       <c r="K10">
-        <v>1.02886901662911</v>
+        <v>1.037805436977404</v>
       </c>
       <c r="L10">
-        <v>1.028493356457054</v>
+        <v>0.9885702474634044</v>
       </c>
       <c r="M10">
-        <v>1.035309935747672</v>
+        <v>0.9872593221669129</v>
       </c>
       <c r="N10">
-        <v>1.011166039416976</v>
+        <v>0.9986639784707583</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014348135187405</v>
+        <v>0.95187879939043</v>
       </c>
       <c r="D11">
-        <v>1.025170031100778</v>
+        <v>1.022708820873849</v>
       </c>
       <c r="E11">
-        <v>1.024358166769749</v>
+        <v>0.970485357276564</v>
       </c>
       <c r="F11">
-        <v>1.03108739017691</v>
+        <v>0.968628472118934</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028196236062541</v>
+        <v>1.045565562565124</v>
       </c>
       <c r="J11">
-        <v>1.021068470029094</v>
+        <v>0.9834001605406961</v>
       </c>
       <c r="K11">
-        <v>1.028777753015332</v>
+        <v>1.037214823105151</v>
       </c>
       <c r="L11">
-        <v>1.027968971972987</v>
+        <v>0.9859861993955145</v>
       </c>
       <c r="M11">
-        <v>1.034672801649342</v>
+        <v>0.984167293148804</v>
       </c>
       <c r="N11">
-        <v>1.011006076378505</v>
+        <v>0.9978411441609031</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014086141422113</v>
+        <v>0.9504626109381094</v>
       </c>
       <c r="D12">
-        <v>1.02509010175386</v>
+        <v>1.022279813821027</v>
       </c>
       <c r="E12">
-        <v>1.024116942290496</v>
+        <v>0.9692737655986768</v>
       </c>
       <c r="F12">
-        <v>1.0308045503853</v>
+        <v>0.9672213353933711</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028198017265132</v>
+        <v>1.045475309823012</v>
       </c>
       <c r="J12">
-        <v>1.020895716942084</v>
+        <v>0.9825222162717605</v>
       </c>
       <c r="K12">
-        <v>1.028743651841878</v>
+        <v>1.036992263729265</v>
       </c>
       <c r="L12">
-        <v>1.027774239312679</v>
+        <v>0.9850142958355091</v>
       </c>
       <c r="M12">
-        <v>1.03443625652106</v>
+        <v>0.9830046704432385</v>
       </c>
       <c r="N12">
-        <v>1.010946625336262</v>
+        <v>0.9975314295822872</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01414233555925</v>
+        <v>0.950767236218233</v>
       </c>
       <c r="D13">
-        <v>1.025107249484421</v>
+        <v>1.022372003920665</v>
       </c>
       <c r="E13">
-        <v>1.024168678527527</v>
+        <v>0.9695343039295111</v>
       </c>
       <c r="F13">
-        <v>1.030865210521971</v>
+        <v>0.9675239295292787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028197648785465</v>
+        <v>1.04549479914511</v>
       </c>
       <c r="J13">
-        <v>1.020932772905002</v>
+        <v>0.9827110603433586</v>
       </c>
       <c r="K13">
-        <v>1.028750975765278</v>
+        <v>1.037040147666444</v>
       </c>
       <c r="L13">
-        <v>1.027816007998315</v>
+        <v>0.9852233307874374</v>
       </c>
       <c r="M13">
-        <v>1.034486991058778</v>
+        <v>0.9832547097108423</v>
       </c>
       <c r="N13">
-        <v>1.010959379306702</v>
+        <v>0.9975980526140429</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014326476710061</v>
+        <v>0.9517621173027254</v>
       </c>
       <c r="D14">
-        <v>1.025163425298077</v>
+        <v>1.022673434071068</v>
       </c>
       <c r="E14">
-        <v>1.024338223818738</v>
+        <v>0.9703854974253903</v>
       </c>
       <c r="F14">
-        <v>1.03106400606181</v>
+        <v>0.968512498088571</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028196389426981</v>
+        <v>1.045558160746259</v>
       </c>
       <c r="J14">
-        <v>1.021054190132586</v>
+        <v>0.9833278237018384</v>
       </c>
       <c r="K14">
-        <v>1.028774938309027</v>
+        <v>1.03719649125017</v>
       </c>
       <c r="L14">
-        <v>1.027952874349895</v>
+        <v>0.9859061121308433</v>
       </c>
       <c r="M14">
-        <v>1.034653246413062</v>
+        <v>0.9840714833146205</v>
       </c>
       <c r="N14">
-        <v>1.011001162822286</v>
+        <v>0.9978156275566422</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014439945087112</v>
+        <v>0.9523726342127895</v>
       </c>
       <c r="D15">
-        <v>1.025198029374264</v>
+        <v>1.022858667935782</v>
       </c>
       <c r="E15">
-        <v>1.024442707445325</v>
+        <v>0.9709080644984819</v>
       </c>
       <c r="F15">
-        <v>1.03118651971999</v>
+        <v>0.9691193855142721</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028195573671256</v>
+        <v>1.045596819989618</v>
       </c>
       <c r="J15">
-        <v>1.021128999764434</v>
+        <v>0.9837063153167617</v>
       </c>
       <c r="K15">
-        <v>1.028789675730796</v>
+        <v>1.037292397812563</v>
       </c>
       <c r="L15">
-        <v>1.028037208466125</v>
+        <v>0.9863251742940358</v>
       </c>
       <c r="M15">
-        <v>1.034755697038808</v>
+        <v>0.9845728287138803</v>
       </c>
       <c r="N15">
-        <v>1.011026902571408</v>
+        <v>0.9979491355568323</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015100577992576</v>
+        <v>0.9558894182395877</v>
       </c>
       <c r="D16">
-        <v>1.025399320714895</v>
+        <v>1.023929401978527</v>
       </c>
       <c r="E16">
-        <v>1.025051170569725</v>
+        <v>0.9739215739855723</v>
       </c>
       <c r="F16">
-        <v>1.031900047620276</v>
+        <v>0.972618915896914</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028190216864643</v>
+        <v>1.045816039370123</v>
       </c>
       <c r="J16">
-        <v>1.02156443134678</v>
+        <v>0.9858866587054803</v>
       </c>
       <c r="K16">
-        <v>1.028875045105079</v>
+        <v>1.037844189381428</v>
       </c>
       <c r="L16">
-        <v>1.028528164730228</v>
+        <v>0.9887400893083149</v>
       </c>
       <c r="M16">
-        <v>1.035352236350497</v>
+        <v>0.9874626001819415</v>
       </c>
       <c r="N16">
-        <v>1.011176650909739</v>
+        <v>0.9987180278583738</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01551515029314</v>
+        <v>0.9580640428707927</v>
       </c>
       <c r="D17">
-        <v>1.025525478374927</v>
+        <v>1.02459455542163</v>
       </c>
       <c r="E17">
-        <v>1.025433128034535</v>
+        <v>0.975787861725372</v>
       </c>
       <c r="F17">
-        <v>1.032348017322074</v>
+        <v>0.9747860270340134</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028186319765531</v>
+        <v>1.04594845407632</v>
       </c>
       <c r="J17">
-        <v>1.021837572421634</v>
+        <v>0.9872349317113259</v>
       </c>
       <c r="K17">
-        <v>1.028928233685423</v>
+        <v>1.038184670434247</v>
       </c>
       <c r="L17">
-        <v>1.02883621251074</v>
+        <v>0.9902341669457456</v>
       </c>
       <c r="M17">
-        <v>1.03572663446968</v>
+        <v>0.9892510794208084</v>
       </c>
       <c r="N17">
-        <v>1.01127052395519</v>
+        <v>0.9991933079337061</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015757026439381</v>
+        <v>0.9593215267470989</v>
       </c>
       <c r="D18">
-        <v>1.025599024633332</v>
+        <v>1.024980202627936</v>
       </c>
       <c r="E18">
-        <v>1.025656019899017</v>
+        <v>0.9768680535067512</v>
       </c>
       <c r="F18">
-        <v>1.032609451984648</v>
+        <v>0.976040282833453</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02818385285959</v>
+        <v>1.046023855691627</v>
       </c>
       <c r="J18">
-        <v>1.021996893281358</v>
+        <v>0.9880145732032007</v>
       </c>
       <c r="K18">
-        <v>1.02895912692504</v>
+        <v>1.038381239943934</v>
       </c>
       <c r="L18">
-        <v>1.029015921795615</v>
+        <v>0.9910983891502217</v>
       </c>
       <c r="M18">
-        <v>1.035945088389231</v>
+        <v>0.9902858185982459</v>
       </c>
       <c r="N18">
-        <v>1.011325256793188</v>
+        <v>0.9994680678799619</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0158395106796</v>
+        <v>0.9597484743400607</v>
       </c>
       <c r="D19">
-        <v>1.025624095254975</v>
+        <v>1.025111305138301</v>
       </c>
       <c r="E19">
-        <v>1.025732037653504</v>
+        <v>0.977234973913278</v>
       </c>
       <c r="F19">
-        <v>1.03269861845784</v>
+        <v>0.9764663220733206</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028182978809425</v>
+        <v>1.046049254932278</v>
       </c>
       <c r="J19">
-        <v>1.02205121796653</v>
+        <v>0.9882792792588652</v>
       </c>
       <c r="K19">
-        <v>1.028969638492465</v>
+        <v>1.038447921787901</v>
       </c>
       <c r="L19">
-        <v>1.029077203144091</v>
+        <v>0.9913918577715645</v>
       </c>
       <c r="M19">
-        <v>1.036019588056826</v>
+        <v>0.9906372293161604</v>
       </c>
       <c r="N19">
-        <v>1.011343915587419</v>
+        <v>0.999561342503608</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015470664081779</v>
+        <v>0.9578318655825419</v>
       </c>
       <c r="D20">
-        <v>1.025511946906694</v>
+        <v>1.024523431589316</v>
       </c>
       <c r="E20">
-        <v>1.025392137006533</v>
+        <v>0.9755884996566919</v>
       </c>
       <c r="F20">
-        <v>1.032299939776394</v>
+        <v>0.9745545356316717</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028186757925733</v>
+        <v>1.045934436955818</v>
       </c>
       <c r="J20">
-        <v>1.021808266732241</v>
+        <v>0.9870909809742946</v>
       </c>
       <c r="K20">
-        <v>1.028922540567381</v>
+        <v>1.038148349877796</v>
       </c>
       <c r="L20">
-        <v>1.028803158772577</v>
+        <v>0.9900746211836832</v>
       </c>
       <c r="M20">
-        <v>1.035686457458765</v>
+        <v>0.9890600725358824</v>
       </c>
       <c r="N20">
-        <v>1.011260454511378</v>
+        <v>0.9991425711452132</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014272249036662</v>
+        <v>0.9514696647611027</v>
       </c>
       <c r="D21">
-        <v>1.025146884520153</v>
+        <v>1.022584771977218</v>
       </c>
       <c r="E21">
-        <v>1.024288292544409</v>
+        <v>0.9701352357164726</v>
       </c>
       <c r="F21">
-        <v>1.031005459654759</v>
+        <v>0.9682218500544634</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028196768571165</v>
+        <v>1.045539581499646</v>
       </c>
       <c r="J21">
-        <v>1.021018435687276</v>
+        <v>0.9831465194791916</v>
       </c>
       <c r="K21">
-        <v>1.028767887494854</v>
+        <v>1.037150539886922</v>
       </c>
       <c r="L21">
-        <v>1.027912569320712</v>
+        <v>0.9857053892970393</v>
       </c>
       <c r="M21">
-        <v>1.034604285185606</v>
+        <v>0.983831360419408</v>
       </c>
       <c r="N21">
-        <v>1.010988859545931</v>
+        <v>0.9977516715528471</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013519323194119</v>
+        <v>0.9473629231050947</v>
       </c>
       <c r="D22">
-        <v>1.024917017289605</v>
+        <v>1.02134462109487</v>
       </c>
       <c r="E22">
-        <v>1.023595186264539</v>
+        <v>0.966625097000137</v>
       </c>
       <c r="F22">
-        <v>1.030192842195708</v>
+        <v>0.964144914527403</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028201323127522</v>
+        <v>1.045274738750163</v>
       </c>
       <c r="J22">
-        <v>1.020521858121802</v>
+        <v>0.9806007900421483</v>
       </c>
       <c r="K22">
-        <v>1.028669484195791</v>
+        <v>1.036504773176328</v>
       </c>
       <c r="L22">
-        <v>1.027352892817892</v>
+        <v>0.9828880345606188</v>
       </c>
       <c r="M22">
-        <v>1.033924544930364</v>
+        <v>0.9804617773210484</v>
       </c>
       <c r="N22">
-        <v>1.010817902416904</v>
+        <v>0.9968534464274099</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013918410019024</v>
+        <v>0.9495504962475118</v>
       </c>
       <c r="D23">
-        <v>1.025038905493229</v>
+        <v>1.022004076002786</v>
       </c>
       <c r="E23">
-        <v>1.023962527342228</v>
+        <v>0.9684939112977036</v>
       </c>
       <c r="F23">
-        <v>1.030623505429295</v>
+        <v>0.9663155768381584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028199073251911</v>
+        <v>1.045416711806118</v>
       </c>
       <c r="J23">
-        <v>1.020785101339317</v>
+        <v>0.9819567892971547</v>
       </c>
       <c r="K23">
-        <v>1.028721759700743</v>
+        <v>1.036848857809568</v>
       </c>
       <c r="L23">
-        <v>1.027649562091004</v>
+        <v>0.9843884780290931</v>
       </c>
       <c r="M23">
-        <v>1.034284825157511</v>
+        <v>0.9822561409227115</v>
       </c>
       <c r="N23">
-        <v>1.010908548417934</v>
+        <v>0.9973319377238893</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015490765290502</v>
+        <v>0.9579368102219217</v>
       </c>
       <c r="D24">
-        <v>1.025518061316702</v>
+        <v>1.024555576572009</v>
       </c>
       <c r="E24">
-        <v>1.025410658770727</v>
+        <v>0.9756786086356392</v>
       </c>
       <c r="F24">
-        <v>1.03232166351239</v>
+        <v>0.9746591667904229</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028186560538906</v>
+        <v>1.045940776355194</v>
       </c>
       <c r="J24">
-        <v>1.021821508704644</v>
+        <v>0.9871560470305532</v>
       </c>
       <c r="K24">
-        <v>1.028925113446604</v>
+        <v>1.038164767837821</v>
       </c>
       <c r="L24">
-        <v>1.028818094240572</v>
+        <v>0.9901467353925858</v>
       </c>
       <c r="M24">
-        <v>1.035704611492333</v>
+        <v>0.9891464063775082</v>
       </c>
       <c r="N24">
-        <v>1.011265004526705</v>
+        <v>0.999165504511073</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017317874621407</v>
+        <v>0.9672428978102349</v>
       </c>
       <c r="D25">
-        <v>1.026072541693807</v>
+        <v>1.027425357429848</v>
       </c>
       <c r="E25">
-        <v>1.027095156568681</v>
+        <v>0.9836896978703378</v>
       </c>
       <c r="F25">
-        <v>1.034297833428938</v>
+        <v>0.9839606316739601</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028164434695646</v>
+        <v>1.046477018129713</v>
       </c>
       <c r="J25">
-        <v>1.023024291679433</v>
+        <v>0.9929252945146537</v>
       </c>
       <c r="K25">
-        <v>1.029155958733625</v>
+        <v>1.039612341487524</v>
       </c>
       <c r="L25">
-        <v>1.030175296368112</v>
+        <v>0.9965465995878637</v>
       </c>
       <c r="M25">
-        <v>1.037355091090547</v>
+        <v>0.9968131480853906</v>
       </c>
       <c r="N25">
-        <v>1.011677799327959</v>
+        <v>1.001197273180615</v>
       </c>
     </row>
   </sheetData>
